--- a/_Out/NFDataCfg/Excel/Map.xlsx
+++ b/_Out/NFDataCfg/Excel/Map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1079,19 +1079,19 @@
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="b">
+      <c r="B3" s="13">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="b">
+      <c r="C3" s="13">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="b">
+      <c r="D3" s="13">
         <v>0</v>
       </c>
-      <c r="E3" s="13" t="b">
+      <c r="E3" s="13">
         <v>0</v>
       </c>
-      <c r="F3" s="13" t="b">
+      <c r="F3" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1099,19 +1099,19 @@
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13" t="b">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="b">
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="b">
+      <c r="D4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="13" t="b">
+      <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="b">
+      <c r="F4" s="13">
         <v>1</v>
       </c>
     </row>
@@ -1119,19 +1119,19 @@
       <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13" t="b">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="b">
+      <c r="C5" s="13">
         <v>0</v>
       </c>
-      <c r="D5" s="13" t="b">
+      <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="13" t="b">
+      <c r="E5" s="13">
         <v>0</v>
       </c>
-      <c r="F5" s="13" t="b">
+      <c r="F5" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1139,19 +1139,19 @@
       <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13" t="b">
+      <c r="B6" s="13">
         <v>0</v>
       </c>
-      <c r="C6" s="13" t="b">
+      <c r="C6" s="13">
         <v>0</v>
       </c>
-      <c r="D6" s="13" t="b">
+      <c r="D6" s="13">
         <v>0</v>
       </c>
-      <c r="E6" s="13" t="b">
+      <c r="E6" s="13">
         <v>0</v>
       </c>
-      <c r="F6" s="13" t="b">
+      <c r="F6" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1159,19 +1159,19 @@
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="b">
+      <c r="B7" s="8">
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="b">
+      <c r="C7" s="8">
         <v>0</v>
       </c>
-      <c r="D7" s="8" t="b">
+      <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="8" t="b">
+      <c r="E7" s="8">
         <v>0</v>
       </c>
-      <c r="F7" s="8" t="b">
+      <c r="F7" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1179,19 +1179,19 @@
       <c r="A8" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="8" t="b">
+      <c r="B8" s="8">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="b">
+      <c r="C8" s="8">
         <v>0</v>
       </c>
-      <c r="D8" s="8" t="b">
+      <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="E8" s="8" t="b">
+      <c r="E8" s="8">
         <v>0</v>
       </c>
-      <c r="F8" s="8" t="b">
+      <c r="F8" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1199,19 +1199,19 @@
       <c r="A9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="b">
+      <c r="B9" s="8">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="b">
+      <c r="C9" s="8">
         <v>0</v>
       </c>
-      <c r="D9" s="8" t="b">
+      <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="8" t="b">
+      <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="8" t="b">
+      <c r="F9" s="8">
         <v>0</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel/Map.xlsx
+++ b/_Out/NFDataCfg/Excel/Map.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9173"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9173" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -1021,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
@@ -3252,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3306,7 +3306,7 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="b">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="b">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="b">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="b">
+      <c r="B7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="b">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel/Map.xlsx
+++ b/_Out/NFDataCfg/Excel/Map.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9173" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9173" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -450,7 +450,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -614,9 +620,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,6 +655,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,7 +683,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1018,7 +1027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1035,203 +1044,203 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="27">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="27">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:6" s="6" customFormat="1">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:6" s="6" customFormat="1">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="7" customFormat="1">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:6" s="6" customFormat="1">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="7" customFormat="1">
-      <c r="A6" s="12" t="s">
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="8" customFormat="1">
-      <c r="A7" s="14" t="s">
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="8" customFormat="1">
-      <c r="A8" s="14" t="s">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1">
+      <c r="A8" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="8" customFormat="1">
-      <c r="A9" s="14" t="s">
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="7" customFormat="1">
+      <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" ht="54">
-      <c r="A10" s="15" t="s">
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" ht="54">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3237,10 +3246,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10 F1:F6 F111:F1048576 B7:H9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10 F1:F6 F111:F1048576 B7:H9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3249,11 +3258,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3336,7 +3345,7 @@
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -3344,80 +3353,103 @@
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1">
+      <c r="A11" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1">
+      <c r="A12" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E12" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F12" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I12" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:9" s="2" customFormat="1">
+      <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="17" t="s">
         <v>120</v>
       </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 E10:F10 C9:C10 M1:N1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 A9:A10 L1:L1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B11 E12:F12 C11:C12 M1:N1048576" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B12 A11:A12 L1:L1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8 D11:G1048576 A4:B6 D1:G8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:G1048576 A4:B6 B7:B10 D1:G10" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C8 C11:C16375 A2:B3 B16376:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16378:C1048576 C13:C16377 A2:B3 C1:C10" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
